--- a/Experimental_Data/Updated_Tests_Small_Motor/compiled_data.xlsx
+++ b/Experimental_Data/Updated_Tests_Small_Motor/compiled_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500"/>
   </bookViews>
   <sheets>
     <sheet name="5030" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="6045" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5030'!$A$1:$C$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5030'!$A$1:$G$66</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'5045'!$A$1:$C$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'6030'!$A$1:$C$70</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'6045'!$A$1:$C$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'6045'!$A$1:$G$50</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>n</t>
   </si>
@@ -45,6 +45,21 @@
   </si>
   <si>
     <t>CQ</t>
+  </si>
+  <si>
+    <t>Model CT</t>
+  </si>
+  <si>
+    <t>Model CQ</t>
+  </si>
+  <si>
+    <t>Resids CT</t>
+  </si>
+  <si>
+    <t>Resids CQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model CQ </t>
   </si>
 </sst>
 </file>
@@ -235,212 +250,203 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'5030'!$A$2:$A$69</c:f>
+              <c:f>'5030'!$A$2:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
-                  <c:v>242.5333333333333</c:v>
+                  <c:v>300.2833333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>242.4333333333333</c:v>
+                  <c:v>300.4166666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>243.2166666666667</c:v>
+                  <c:v>301.7333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300.2833333333334</c:v>
+                  <c:v>300.1333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300.4166666666667</c:v>
+                  <c:v>347.6333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>301.7333333333333</c:v>
+                  <c:v>300.1333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300.1333333333333</c:v>
+                  <c:v>300.5333333333334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>347.6333333333333</c:v>
+                  <c:v>301.4666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>300.1333333333333</c:v>
+                  <c:v>348.4166666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>300.5333333333334</c:v>
+                  <c:v>304.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>301.4666666666666</c:v>
+                  <c:v>299.5333333333334</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>299.5333333333334</c:v>
+                  <c:v>300.9833333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>304.6</c:v>
+                  <c:v>348.7166666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>348.4166666666667</c:v>
+                  <c:v>301.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>300.9833333333333</c:v>
+                  <c:v>303.2833333333334</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>301.3</c:v>
+                  <c:v>350.1833333333332</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>303.2833333333334</c:v>
+                  <c:v>346.6833333333332</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>348.7166666666666</c:v>
+                  <c:v>303.7333333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>350.1833333333332</c:v>
+                  <c:v>300.15</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>346.6833333333332</c:v>
+                  <c:v>302.95</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>303.7333333333333</c:v>
+                  <c:v>351.7833333333334</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>300.15</c:v>
+                  <c:v>347.85</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>302.95</c:v>
+                  <c:v>352.9333333333333</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>351.7833333333334</c:v>
+                  <c:v>346.5333333333334</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>347.85</c:v>
+                  <c:v>349.8166666666667</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>352.9333333333333</c:v>
+                  <c:v>348.3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>346.5333333333334</c:v>
+                  <c:v>347.65</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>349.8166666666667</c:v>
+                  <c:v>350.9666666666666</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>348.3</c:v>
+                  <c:v>351.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>347.65</c:v>
+                  <c:v>282.0666666666667</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>350.9666666666666</c:v>
+                  <c:v>284.0333333333334</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>351.6666666666666</c:v>
+                  <c:v>281.8666666666666</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>282.0666666666667</c:v>
+                  <c:v>279.2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>284.0333333333334</c:v>
+                  <c:v>327.3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>281.8666666666666</c:v>
+                  <c:v>328.45</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>279.2</c:v>
+                  <c:v>309.341755</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>327.3</c:v>
+                  <c:v>281.8</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>328.45</c:v>
+                  <c:v>308.7000881666667</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>309.341755</c:v>
+                  <c:v>280.1833333333332</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>281.8</c:v>
+                  <c:v>309.2445328333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>280.1833333333332</c:v>
+                  <c:v>323.8333333333333</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>327.35</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>308.7000881666667</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>309.2445328333333</c:v>
-                </c:pt>
                 <c:pt idx="43">
-                  <c:v>323.8333333333333</c:v>
+                  <c:v>326.8</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>327.35</c:v>
+                  <c:v>310.8778666666665</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>308.7000881666667</c:v>
+                  <c:v>312.9972211666666</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>310.8778666666665</c:v>
+                  <c:v>325.2333333333333</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>326.8</c:v>
+                  <c:v>311.2862</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>312.9972211666666</c:v>
+                  <c:v>312.5112003333334</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>311.2862</c:v>
+                  <c:v>310.3528665</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>325.2333333333333</c:v>
+                  <c:v>314.5333323333334</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>312.5112003333334</c:v>
+                  <c:v>310.9944433333333</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>310.3528665</c:v>
+                  <c:v>308.9723105</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>314.5333323333334</c:v>
+                  <c:v>308.2334213333334</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>310.9944433333333</c:v>
+                  <c:v>312.8027766666667</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>308.9723105</c:v>
+                  <c:v>262.25</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>308.2334213333334</c:v>
+                  <c:v>312.3555545</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>312.8027766666667</c:v>
+                  <c:v>262.1666666666666</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>262.25</c:v>
+                  <c:v>262.35</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>312.3555545</c:v>
+                  <c:v>290.6945275</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>262.1666666666666</c:v>
+                  <c:v>293.5333323333334</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>262.35</c:v>
+                  <c:v>287.7389711666667</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>290.6945275</c:v>
+                  <c:v>292.7750836666667</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>293.5333323333334</c:v>
+                  <c:v>289.3333323333334</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>287.7389711666667</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>292.7750836666667</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>289.3333323333334</c:v>
-                </c:pt>
-                <c:pt idx="67">
                   <c:v>287.2334153333333</c:v>
                 </c:pt>
               </c:numCache>
@@ -448,212 +454,203 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5030'!$B$2:$B$69</c:f>
+              <c:f>'5030'!$B$2:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
-                  <c:v>42.3567059333337</c:v>
+                  <c:v>42.92531091663653</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.06890477046426</c:v>
+                  <c:v>42.28138846668357</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.57289084448437</c:v>
+                  <c:v>42.58177498535708</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.92531091663653</c:v>
+                  <c:v>42.10405614119824</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.28138846668357</c:v>
+                  <c:v>44.30053789441603</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.58177498535708</c:v>
+                  <c:v>42.00578500314794</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.10405614119824</c:v>
+                  <c:v>42.04123083164708</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44.30053789441603</c:v>
+                  <c:v>41.83825047743112</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.00578500314794</c:v>
+                  <c:v>44.08156316286795</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.04123083164708</c:v>
+                  <c:v>42.05095538492257</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41.83825047743112</c:v>
+                  <c:v>42.01587345544141</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42.01587345544141</c:v>
+                  <c:v>41.88546818697257</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.05095538492257</c:v>
+                  <c:v>43.92713634138462</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44.08156316286795</c:v>
+                  <c:v>42.00111470622535</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41.88546818697257</c:v>
+                  <c:v>41.74764715568161</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42.00111470622535</c:v>
+                  <c:v>43.73900765012783</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41.74764715568161</c:v>
+                  <c:v>43.54152651591731</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43.92713634138462</c:v>
+                  <c:v>41.69036032464784</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43.73900765012783</c:v>
+                  <c:v>41.50806311682615</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43.54152651591731</c:v>
+                  <c:v>41.30026742982383</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41.69036032464784</c:v>
+                  <c:v>43.34519637918977</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41.50806311682615</c:v>
+                  <c:v>43.24496462873591</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41.30026742982383</c:v>
+                  <c:v>43.2524491304819</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43.34519637918977</c:v>
+                  <c:v>42.98755967655408</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43.24496462873591</c:v>
+                  <c:v>42.95816389032466</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43.2524491304819</c:v>
+                  <c:v>42.95946527066766</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42.98755967655408</c:v>
+                  <c:v>42.94981958491086</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42.95816389032466</c:v>
+                  <c:v>42.683996278352</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42.95946527066766</c:v>
+                  <c:v>42.26466739016094</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42.94981958491086</c:v>
+                  <c:v>41.96814287979846</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42.683996278352</c:v>
+                  <c:v>42.5984389298847</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42.26466739016094</c:v>
+                  <c:v>42.28879223058846</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41.96814287979846</c:v>
+                  <c:v>41.9115686083443</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42.5984389298847</c:v>
+                  <c:v>44.00744935150926</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>42.28879223058846</c:v>
+                  <c:v>43.97027624272335</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41.9115686083443</c:v>
+                  <c:v>43.21890545072539</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44.00744935150926</c:v>
+                  <c:v>41.2327876068441</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43.97027624272335</c:v>
+                  <c:v>42.87061139674082</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43.21890545072539</c:v>
+                  <c:v>41.32280683553472</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41.2327876068441</c:v>
+                  <c:v>42.88733458139984</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41.32280683553472</c:v>
+                  <c:v>43.34801689039215</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42.87061139674082</c:v>
+                  <c:v>43.43223669226705</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42.88733458139984</c:v>
+                  <c:v>42.94461775902774</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43.34801689039215</c:v>
+                  <c:v>43.17411097563246</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43.43223669226705</c:v>
+                  <c:v>42.79633112543977</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42.94461775902774</c:v>
+                  <c:v>42.80160981952124</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>42.79633112543977</c:v>
+                  <c:v>42.58959362725286</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43.17411097563246</c:v>
+                  <c:v>42.79104414255347</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42.80160981952124</c:v>
+                  <c:v>42.72380249483102</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>42.79104414255347</c:v>
+                  <c:v>42.58593899990835</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>42.58959362725286</c:v>
+                  <c:v>42.80871479059727</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42.72380249483102</c:v>
+                  <c:v>42.11173473724997</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42.58593899990835</c:v>
+                  <c:v>42.38202923024715</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42.80871479059727</c:v>
+                  <c:v>42.37391067558922</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42.11173473724997</c:v>
+                  <c:v>41.7881867509024</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42.38202923024715</c:v>
+                  <c:v>42.05978093034543</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42.37391067558922</c:v>
+                  <c:v>41.72410171123524</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>41.7881867509024</c:v>
+                  <c:v>41.79921000449486</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42.05978093034543</c:v>
+                  <c:v>41.43657408983626</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>41.72410171123524</c:v>
+                  <c:v>43.02115669126461</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>41.79921000449486</c:v>
+                  <c:v>42.88886065592086</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>41.43657408983626</c:v>
+                  <c:v>42.3525220862293</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>43.02115669126461</c:v>
+                  <c:v>42.21326415878011</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42.88886065592086</c:v>
+                  <c:v>41.74619567111682</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42.3525220862293</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>42.21326415878011</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>41.74619567111682</c:v>
-                </c:pt>
-                <c:pt idx="67">
                   <c:v>41.94195158578791</c:v>
                 </c:pt>
               </c:numCache>
@@ -669,11 +666,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1631772752"/>
-        <c:axId val="-1631775072"/>
+        <c:axId val="-704715808"/>
+        <c:axId val="-704861648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1631772752"/>
+        <c:axId val="-704715808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="200.0"/>
@@ -694,6 +691,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -730,12 +728,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1631775072"/>
+        <c:crossAx val="-704861648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1631775072"/>
+        <c:axId val="-704861648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -792,7 +790,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1631772752"/>
+        <c:crossAx val="-704715808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -980,212 +978,203 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'5030'!$A$2:$A$70</c:f>
+              <c:f>'5030'!$A$2:$A$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
-                  <c:v>242.5333333333333</c:v>
+                  <c:v>300.2833333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>242.4333333333333</c:v>
+                  <c:v>300.4166666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>243.2166666666667</c:v>
+                  <c:v>301.7333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300.2833333333334</c:v>
+                  <c:v>300.1333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300.4166666666667</c:v>
+                  <c:v>347.6333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>301.7333333333333</c:v>
+                  <c:v>300.1333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300.1333333333333</c:v>
+                  <c:v>300.5333333333334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>347.6333333333333</c:v>
+                  <c:v>301.4666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>300.1333333333333</c:v>
+                  <c:v>348.4166666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>300.5333333333334</c:v>
+                  <c:v>304.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>301.4666666666666</c:v>
+                  <c:v>299.5333333333334</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>299.5333333333334</c:v>
+                  <c:v>300.9833333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>304.6</c:v>
+                  <c:v>348.7166666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>348.4166666666667</c:v>
+                  <c:v>301.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>300.9833333333333</c:v>
+                  <c:v>303.2833333333334</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>301.3</c:v>
+                  <c:v>350.1833333333332</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>303.2833333333334</c:v>
+                  <c:v>346.6833333333332</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>348.7166666666666</c:v>
+                  <c:v>303.7333333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>350.1833333333332</c:v>
+                  <c:v>300.15</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>346.6833333333332</c:v>
+                  <c:v>302.95</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>303.7333333333333</c:v>
+                  <c:v>351.7833333333334</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>300.15</c:v>
+                  <c:v>347.85</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>302.95</c:v>
+                  <c:v>352.9333333333333</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>351.7833333333334</c:v>
+                  <c:v>346.5333333333334</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>347.85</c:v>
+                  <c:v>349.8166666666667</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>352.9333333333333</c:v>
+                  <c:v>348.3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>346.5333333333334</c:v>
+                  <c:v>347.65</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>349.8166666666667</c:v>
+                  <c:v>350.9666666666666</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>348.3</c:v>
+                  <c:v>351.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>347.65</c:v>
+                  <c:v>282.0666666666667</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>350.9666666666666</c:v>
+                  <c:v>284.0333333333334</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>351.6666666666666</c:v>
+                  <c:v>281.8666666666666</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>282.0666666666667</c:v>
+                  <c:v>279.2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>284.0333333333334</c:v>
+                  <c:v>327.3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>281.8666666666666</c:v>
+                  <c:v>328.45</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>279.2</c:v>
+                  <c:v>309.341755</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>327.3</c:v>
+                  <c:v>281.8</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>328.45</c:v>
+                  <c:v>308.7000881666667</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>309.341755</c:v>
+                  <c:v>280.1833333333332</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>281.8</c:v>
+                  <c:v>309.2445328333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>280.1833333333332</c:v>
+                  <c:v>323.8333333333333</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>327.35</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>308.7000881666667</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>309.2445328333333</c:v>
-                </c:pt>
                 <c:pt idx="43">
-                  <c:v>323.8333333333333</c:v>
+                  <c:v>326.8</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>327.35</c:v>
+                  <c:v>310.8778666666665</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>308.7000881666667</c:v>
+                  <c:v>312.9972211666666</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>310.8778666666665</c:v>
+                  <c:v>325.2333333333333</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>326.8</c:v>
+                  <c:v>311.2862</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>312.9972211666666</c:v>
+                  <c:v>312.5112003333334</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>311.2862</c:v>
+                  <c:v>310.3528665</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>325.2333333333333</c:v>
+                  <c:v>314.5333323333334</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>312.5112003333334</c:v>
+                  <c:v>310.9944433333333</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>310.3528665</c:v>
+                  <c:v>308.9723105</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>314.5333323333334</c:v>
+                  <c:v>308.2334213333334</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>310.9944433333333</c:v>
+                  <c:v>312.8027766666667</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>308.9723105</c:v>
+                  <c:v>262.25</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>308.2334213333334</c:v>
+                  <c:v>312.3555545</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>312.8027766666667</c:v>
+                  <c:v>262.1666666666666</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>262.25</c:v>
+                  <c:v>262.35</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>312.3555545</c:v>
+                  <c:v>290.6945275</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>262.1666666666666</c:v>
+                  <c:v>293.5333323333334</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>262.35</c:v>
+                  <c:v>287.7389711666667</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>290.6945275</c:v>
+                  <c:v>292.7750836666667</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>293.5333323333334</c:v>
+                  <c:v>289.3333323333334</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>287.7389711666667</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>292.7750836666667</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>289.3333323333334</c:v>
-                </c:pt>
-                <c:pt idx="67">
                   <c:v>287.2334153333333</c:v>
                 </c:pt>
               </c:numCache>
@@ -1193,212 +1182,203 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5030'!$C$2:$C$70</c:f>
+              <c:f>'5030'!$C$2:$C$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
-                  <c:v>1.416875071552485</c:v>
+                  <c:v>1.324157313254826</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.40271575417223</c:v>
+                  <c:v>1.302259209889514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.388688328674746</c:v>
+                  <c:v>1.30180834570824</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.324157313254826</c:v>
+                  <c:v>1.29826182281253</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.302259209889514</c:v>
+                  <c:v>1.296024763598815</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.30180834570824</c:v>
+                  <c:v>1.294309227886588</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.29826182281253</c:v>
+                  <c:v>1.293755720586713</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.296024763598815</c:v>
+                  <c:v>1.293594714854443</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.294309227886588</c:v>
+                  <c:v>1.290976438597053</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.293755720586713</c:v>
+                  <c:v>1.291587824606294</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.293594714854443</c:v>
+                  <c:v>1.29178309656596</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.29178309656596</c:v>
+                  <c:v>1.29080313050243</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.291587824606294</c:v>
+                  <c:v>1.284365535261976</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.290976438597053</c:v>
+                  <c:v>1.285360621046707</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.29080313050243</c:v>
+                  <c:v>1.284555368086044</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.285360621046707</c:v>
+                  <c:v>1.280724842358131</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.284555368086044</c:v>
+                  <c:v>1.280362496042802</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.284365535261976</c:v>
+                  <c:v>1.280180731063143</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.280724842358131</c:v>
+                  <c:v>1.279699558980044</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.280362496042802</c:v>
+                  <c:v>1.277947268551051</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.280180731063143</c:v>
+                  <c:v>1.275306090237108</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.279699558980044</c:v>
+                  <c:v>1.273844466938382</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.277947268551051</c:v>
+                  <c:v>1.272880436604475</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.275306090237108</c:v>
+                  <c:v>1.270443625589028</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.273844466938382</c:v>
+                  <c:v>1.26978056526545</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.272880436604475</c:v>
+                  <c:v>1.266725306003571</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.270443625589028</c:v>
+                  <c:v>1.265529941992129</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.26978056526545</c:v>
+                  <c:v>1.262695388218065</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.266725306003571</c:v>
+                  <c:v>1.25100851800526</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.265529941992129</c:v>
+                  <c:v>1.246251976416184</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.262695388218065</c:v>
+                  <c:v>1.243745725003096</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.25100851800526</c:v>
+                  <c:v>1.240482404454976</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.246251976416184</c:v>
+                  <c:v>1.238538956704335</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.243745725003096</c:v>
+                  <c:v>1.235197580972988</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.240482404454976</c:v>
+                  <c:v>1.226611474708371</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.238538956704335</c:v>
+                  <c:v>1.226311432043929</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.235197580972988</c:v>
+                  <c:v>1.22403464708542</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.226611474708371</c:v>
+                  <c:v>1.222653658280476</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.226311432043929</c:v>
+                  <c:v>1.223647144945588</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.22403464708542</c:v>
+                  <c:v>1.222217639856771</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.223647144945588</c:v>
+                  <c:v>1.220435272063689</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.222653658280476</c:v>
+                  <c:v>1.218586069053403</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.222217639856771</c:v>
+                  <c:v>1.218572390108731</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.220435272063689</c:v>
+                  <c:v>1.216063861341124</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.218586069053403</c:v>
+                  <c:v>1.216096416197574</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.218572390108731</c:v>
+                  <c:v>1.213936722682524</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.216096416197574</c:v>
+                  <c:v>1.213235999294507</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.216063861341124</c:v>
+                  <c:v>1.213346479448156</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.213936722682524</c:v>
+                  <c:v>1.212736252296408</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.213346479448156</c:v>
+                  <c:v>1.21051844624653</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.213235999294507</c:v>
+                  <c:v>1.20834637981791</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.212736252296408</c:v>
+                  <c:v>1.203154077820864</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.21051844624653</c:v>
+                  <c:v>1.202079125582994</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.20834637981791</c:v>
+                  <c:v>1.198555850110584</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.203154077820864</c:v>
+                  <c:v>1.194420894795641</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.202079125582994</c:v>
+                  <c:v>1.192468836520328</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.198555850110584</c:v>
+                  <c:v>1.190354213537315</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.194420894795641</c:v>
+                  <c:v>1.188925771604164</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.192468836520328</c:v>
+                  <c:v>1.176749363782142</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.190354213537315</c:v>
+                  <c:v>1.146915230832589</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.188925771604164</c:v>
+                  <c:v>1.144713673593817</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.176749363782142</c:v>
+                  <c:v>1.135981469025984</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.146915230832589</c:v>
+                  <c:v>1.133592602274522</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.144713673593817</c:v>
+                  <c:v>1.133011873883303</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.135981469025984</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.133592602274522</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.133011873883303</c:v>
-                </c:pt>
-                <c:pt idx="67">
                   <c:v>1.12789135608275</c:v>
                 </c:pt>
               </c:numCache>
@@ -1414,11 +1394,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1656979968"/>
-        <c:axId val="-1658064192"/>
+        <c:axId val="-602201600"/>
+        <c:axId val="-602199280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1656979968"/>
+        <c:axId val="-602201600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="200.0"/>
@@ -1476,12 +1456,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1658064192"/>
+        <c:crossAx val="-602199280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1658064192"/>
+        <c:axId val="-602199280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1537,7 +1517,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1656979968"/>
+        <c:crossAx val="-602201600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1601,7 +1581,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2123,11 +2102,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1629872528"/>
-        <c:axId val="-1583868816"/>
+        <c:axId val="-704821408"/>
+        <c:axId val="-705603248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1629872528"/>
+        <c:axId val="-704821408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="200.0"/>
@@ -2184,12 +2163,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1583868816"/>
+        <c:crossAx val="-705603248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1583868816"/>
+        <c:axId val="-705603248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2245,7 +2224,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1629872528"/>
+        <c:crossAx val="-704821408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2309,7 +2288,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2831,11 +2809,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1583209680"/>
-        <c:axId val="-1583127664"/>
+        <c:axId val="-602772256"/>
+        <c:axId val="-602769936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1583209680"/>
+        <c:axId val="-602772256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="200.0"/>
@@ -2856,6 +2834,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2892,12 +2871,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1583127664"/>
+        <c:crossAx val="-602769936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1583127664"/>
+        <c:axId val="-602769936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2953,7 +2932,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1583209680"/>
+        <c:crossAx val="-602772256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3017,7 +2996,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3581,11 +3559,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1582632544"/>
-        <c:axId val="-1582634864"/>
+        <c:axId val="-603317248"/>
+        <c:axId val="-603314928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1582632544"/>
+        <c:axId val="-603317248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="200.0"/>
@@ -3642,12 +3620,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1582634864"/>
+        <c:crossAx val="-603314928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1582634864"/>
+        <c:axId val="-603314928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3667,6 +3645,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3703,7 +3682,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1582632544"/>
+        <c:crossAx val="-603317248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3767,7 +3746,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4331,11 +4309,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1631209760"/>
-        <c:axId val="-1584417152"/>
+        <c:axId val="-603151552"/>
+        <c:axId val="-603149232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1631209760"/>
+        <c:axId val="-603151552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="200.0"/>
@@ -4392,12 +4370,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1584417152"/>
+        <c:crossAx val="-603149232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1584417152"/>
+        <c:axId val="-603149232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4453,7 +4431,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1631209760"/>
+        <c:crossAx val="-603151552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4517,7 +4495,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4641,342 +4618,312 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'6045'!$A$2:$A$55</c:f>
+              <c:f>'6045'!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>216.8833333333333</c:v>
+                  <c:v>293.3833333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>211.95</c:v>
+                  <c:v>292.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>292.25</c:v>
+                  <c:v>288.0833333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>278.4833333333333</c:v>
+                  <c:v>292.3666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>212.85</c:v>
+                  <c:v>290.1166666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>244.45</c:v>
+                  <c:v>291.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>292.3666666666666</c:v>
+                  <c:v>229.2333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>293.3833333333333</c:v>
+                  <c:v>291.3166666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>288.0833333333333</c:v>
+                  <c:v>296.1166666666666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>209.5</c:v>
+                  <c:v>291.6333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>291.05</c:v>
+                  <c:v>290.8166666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>245.0666666666667</c:v>
+                  <c:v>238.0333333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>207.1166666666667</c:v>
+                  <c:v>289.45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>291.3166666666667</c:v>
+                  <c:v>290.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>294.7166666666666</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>296.1166666666666</c:v>
+                  <c:v>245.0666666666667</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>290.1166666666666</c:v>
+                  <c:v>232.9833333333333</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>244.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>235.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>241.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>246.5833333333333</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>293.8333333333333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>242.9166666666667</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>244.55</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>243.8833333333333</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>244.5666666666667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>232.5333333333333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>242.2833333333333</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>212.85</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>244.0166666666667</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>243.7166666666667</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>244.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>243.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>246.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>194.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>278.4833333333333</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>269.0833333333333</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>270.1166666666666</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>275.9166666666667</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="39">
+                  <c:v>215.7166666666667</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>229.85</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>231.9</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>269.0833333333333</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>229.85</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>290.3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>241.9</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>289.45</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>290.8166666666667</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>205.3166666666667</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>246.5833333333333</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="42">
+                  <c:v>271.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>277.4666666666666</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>226.95</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>270.1166666666666</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="45">
                   <c:v>225.7166666666667</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>277.4666666666666</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>291.6333333333333</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>243.8833333333333</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="46">
+                  <c:v>229.95</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>230.75</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>244.55</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>229.2333333333333</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>244.5666666666667</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>242.2833333333333</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>244.0166666666667</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>293.8333333333333</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>242.9166666666667</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>243.7166666666667</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>238.0333333333333</c:v>
-                </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="48">
                   <c:v>226.3333333333333</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>271.5</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>229.95</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>232.9833333333333</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>244.4</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>246.4</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>194.1666666666667</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>215.7166666666667</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>243.3333333333333</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>235.5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>232.5333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6045'!$B$2:$B$55</c:f>
+              <c:f>'6045'!$B$2:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>58.72609734595172</c:v>
+                  <c:v>58.11178023589244</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.47110820159606</c:v>
+                  <c:v>58.37836310164099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.37836310164099</c:v>
+                  <c:v>58.09482922564928</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.2857698492205</c:v>
+                  <c:v>58.11332823549343</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.20588342190226</c:v>
+                  <c:v>57.77683058791086</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.16969647988708</c:v>
+                  <c:v>58.03150707429533</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.11332823549343</c:v>
+                  <c:v>56.96394466790953</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.11178023589244</c:v>
+                  <c:v>57.8795056279934</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.09482922564928</c:v>
+                  <c:v>57.78708987365385</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58.05345539225101</c:v>
+                  <c:v>57.30609217529325</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>58.03150707429533</c:v>
+                  <c:v>57.57510558336479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>58.01184445050081</c:v>
+                  <c:v>56.63770806209941</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>57.99728519982275</c:v>
+                  <c:v>57.59028807115222</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>57.8795056279934</c:v>
+                  <c:v>57.6421595754919</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>57.80912381364343</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>57.78708987365385</c:v>
+                  <c:v>58.01184445050081</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>57.77683058791086</c:v>
+                  <c:v>56.35018830453977</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>58.16969647988708</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55.81432338673905</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57.59364987330791</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>57.49538493950468</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56.68823553445238</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56.68266672297198</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>57.15059085267222</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>57.20503200660583</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56.93973863053906</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55.30990101611388</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56.86578436146725</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58.20588342190226</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>56.69382082853508</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56.64542904783092</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>56.33226864310472</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>55.86708026085403</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>56.16642151991991</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>56.02374986242025</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>58.2857698492205</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>57.69346884444946</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>57.39920291447578</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>57.75264079957807</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="39">
+                  <c:v>56.01669682255768</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>57.67902852158245</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>57.69858312824142</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>57.69346884444946</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>57.67902852158245</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>57.6421595754919</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>57.59364987330791</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>57.59028807115222</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>57.57510558336479</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>57.52344522215617</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>57.49538493950468</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="42">
+                  <c:v>56.55484208636275</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>57.36961568951818</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>57.4010321988732</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>57.39920291447578</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="45">
                   <c:v>57.39636904628659</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>57.36961568951818</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>57.30609217529325</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>57.20503200660583</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="46">
+                  <c:v>56.54339666862917</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>57.18874668475461</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>57.15059085267222</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>56.96394466790953</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>56.93973863053906</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>56.86578436146725</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>56.69382082853508</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>56.68823553445238</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>56.68266672297198</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>56.64542904783092</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>56.63770806209941</c:v>
-                </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="48">
                   <c:v>56.62236606065987</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>56.55484208636275</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>56.54339666862917</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>56.35018830453977</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>56.33226864310472</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>56.16642151991991</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>56.02374986242025</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>56.01669682255768</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>55.86708026085403</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>55.81432338673905</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>55.30990101611388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4991,11 +4938,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1582410944"/>
-        <c:axId val="-1584513472"/>
+        <c:axId val="-603215136"/>
+        <c:axId val="-603212816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1582410944"/>
+        <c:axId val="-603215136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="150.0"/>
@@ -5052,12 +4999,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1584513472"/>
+        <c:crossAx val="-603212816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1584513472"/>
+        <c:axId val="-603212816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5113,7 +5060,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1582410944"/>
+        <c:crossAx val="-603215136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5177,7 +5124,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5301,342 +5247,312 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'6045'!$A$2:$A$57</c:f>
+              <c:f>'6045'!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>216.8833333333333</c:v>
+                  <c:v>293.3833333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>211.95</c:v>
+                  <c:v>292.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>292.25</c:v>
+                  <c:v>288.0833333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>278.4833333333333</c:v>
+                  <c:v>292.3666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>212.85</c:v>
+                  <c:v>290.1166666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>244.45</c:v>
+                  <c:v>291.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>292.3666666666666</c:v>
+                  <c:v>229.2333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>293.3833333333333</c:v>
+                  <c:v>291.3166666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>288.0833333333333</c:v>
+                  <c:v>296.1166666666666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>209.5</c:v>
+                  <c:v>291.6333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>291.05</c:v>
+                  <c:v>290.8166666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>245.0666666666667</c:v>
+                  <c:v>238.0333333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>207.1166666666667</c:v>
+                  <c:v>289.45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>291.3166666666667</c:v>
+                  <c:v>290.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>294.7166666666666</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>296.1166666666666</c:v>
+                  <c:v>245.0666666666667</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>290.1166666666666</c:v>
+                  <c:v>232.9833333333333</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>244.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>235.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>241.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>246.5833333333333</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>293.8333333333333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>242.9166666666667</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>244.55</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>243.8833333333333</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>244.5666666666667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>232.5333333333333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>242.2833333333333</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>212.85</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>244.0166666666667</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>243.7166666666667</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>244.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>243.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>246.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>194.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>278.4833333333333</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>269.0833333333333</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>270.1166666666666</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>275.9166666666667</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="39">
+                  <c:v>215.7166666666667</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>229.85</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>231.9</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>269.0833333333333</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>229.85</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>290.3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>241.9</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>289.45</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>290.8166666666667</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>205.3166666666667</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>246.5833333333333</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="42">
+                  <c:v>271.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>277.4666666666666</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>226.95</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>270.1166666666666</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="45">
                   <c:v>225.7166666666667</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>277.4666666666666</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>291.6333333333333</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>243.8833333333333</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="46">
+                  <c:v>229.95</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>230.75</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>244.55</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>229.2333333333333</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>244.5666666666667</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>242.2833333333333</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>244.0166666666667</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>293.8333333333333</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>242.9166666666667</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>243.7166666666667</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>238.0333333333333</c:v>
-                </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="48">
                   <c:v>226.3333333333333</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>271.5</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>229.95</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>232.9833333333333</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>244.4</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>246.4</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>194.1666666666667</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>215.7166666666667</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>243.3333333333333</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>235.5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>232.5333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6045'!$C$2:$C$57</c:f>
+              <c:f>'6045'!$C$2:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>2.004780482292803</c:v>
+                  <c:v>1.749661192667216</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.00312650887678</c:v>
+                  <c:v>1.744089779076968</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.744089779076968</c:v>
+                  <c:v>1.750259177807659</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.625656747028437</c:v>
+                  <c:v>1.740412936432714</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.814007897485092</c:v>
+                  <c:v>1.743390204989375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.795115504529242</c:v>
+                  <c:v>1.741467277820818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.740412936432714</c:v>
+                  <c:v>1.84024169299432</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.749661192667216</c:v>
+                  <c:v>1.738890565026521</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.750259177807659</c:v>
+                  <c:v>1.730944159971453</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.983608176102262</c:v>
+                  <c:v>1.735474552213581</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.741467277820818</c:v>
+                  <c:v>1.735966736379899</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.798138394921641</c:v>
+                  <c:v>1.818738325693726</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.987223825614825</c:v>
+                  <c:v>1.73596570682235</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.738890565026521</c:v>
+                  <c:v>1.734502916907252</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1.726523431800639</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.730944159971453</c:v>
+                  <c:v>1.798138394921641</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.743390204989375</c:v>
+                  <c:v>1.815144379651738</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1.795115504529242</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.804365657235364</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.792249418672184</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.782019598529444</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.700065327603191</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.77757047522399</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.773165938907854</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.770289127187491</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.767663429597252</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.785312677370198</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.767900856874169</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.814007897485092</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.761126761916526</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.761371039941749</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.754311846663876</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.746224117835565</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.740700741503402</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.798548797017969</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.625656747028437</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.631108776949092</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.624818580664299</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>1.615456621566298</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="39">
+                  <c:v>1.70253193384378</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.676122371690728</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>1.67276856977837</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.631108776949092</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.676122371690728</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.734502916907252</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.792249418672184</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.73596570682235</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.735966736379899</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.98479133941227</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.782019598529444</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="42">
+                  <c:v>1.607888305720179</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.595930694741859</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>1.670688115329487</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.624818580664299</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="45">
                   <c:v>1.671067497681808</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.595930694741859</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.735474552213581</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.770289127187491</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="46">
+                  <c:v>1.662010788561468</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>1.659314589308857</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.773165938907854</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.84024169299432</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.767663429597252</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.767900856874169</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.761126761916526</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.700065327603191</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.77757047522399</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.761371039941749</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.818738325693726</c:v>
-                </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="48">
                   <c:v>1.665408506950283</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.607888305720179</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.662010788561468</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.815144379651738</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.754311846663876</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.740700741503402</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.798548797017969</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.70253193384378</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.746224117835565</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.804365657235364</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.785312677370198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5651,11 +5567,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1582364880"/>
-        <c:axId val="-1581146896"/>
+        <c:axId val="-602475136"/>
+        <c:axId val="-602473088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1582364880"/>
+        <c:axId val="-602475136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="150.0"/>
@@ -5712,12 +5628,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1581146896"/>
+        <c:crossAx val="-602473088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1581146896"/>
+        <c:axId val="-602473088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5773,7 +5689,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1582364880"/>
+        <c:crossAx val="-602475136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10274,16 +10190,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10304,16 +10220,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10469,16 +10385,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10499,16 +10415,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10815,15 +10731,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10833,759 +10749,1778 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>242.5333333333333</v>
+        <v>300.28333333333342</v>
       </c>
       <c r="B2">
-        <v>42.3567059333337</v>
+        <v>42.925310916636533</v>
       </c>
       <c r="C2">
-        <v>1.4168750715524849</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.3241573132548261</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D33" si="0">(0.0166*A2) + 37.438</f>
+        <v>42.422703333333338</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E33" si="1">((-0.00004)*A2) + 1.2573</f>
+        <v>1.2452886666666667</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F33" si="2">B2-D2</f>
+        <v>0.50260758330319533</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G33" si="3">C2-E2</f>
+        <v>7.8868646588159397E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>242.43333333333331</v>
+        <v>300.41666666666669</v>
       </c>
       <c r="B3">
-        <v>42.068904770464258</v>
+        <v>42.281388466683573</v>
       </c>
       <c r="C3">
-        <v>1.402715754172229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.302259209889514</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>42.424916666666668</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>1.2452833333333335</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="2"/>
+        <v>-0.14352819998309485</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="3"/>
+        <v>5.6975876556180527E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>243.2166666666667</v>
+        <v>301.73333333333329</v>
       </c>
       <c r="B4">
-        <v>42.57289084448437</v>
+        <v>42.581774985357079</v>
       </c>
       <c r="C4">
-        <v>1.388688328674746</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.3018083457082399</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>42.446773333333333</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1.2452306666666668</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>0.13500165202374603</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>5.657767904157307E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>300.28333333333342</v>
+        <v>300.13333333333333</v>
       </c>
       <c r="B5">
-        <v>42.925310916636533</v>
+        <v>42.104056141198242</v>
       </c>
       <c r="C5">
-        <v>1.3241573132548261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2982618228125291</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>42.420213333333336</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>1.2452946666666667</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>-0.31615719213509408</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>5.2967156145862448E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>300.41666666666669</v>
+        <v>347.63333333333333</v>
       </c>
       <c r="B6">
-        <v>42.281388466683573</v>
+        <v>44.300537894416031</v>
       </c>
       <c r="C6">
-        <v>1.302259209889514</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2960247635988149</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>43.208713333333336</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1.2433946666666666</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>1.0918245610826958</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>5.2630096932148263E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>301.73333333333329</v>
+        <v>300.13333333333333</v>
       </c>
       <c r="B7">
-        <v>42.581774985357079</v>
+        <v>42.005785003147942</v>
       </c>
       <c r="C7">
-        <v>1.3018083457082399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.294309227886588</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>42.420213333333336</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1.2452946666666667</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>-0.4144283301853946</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>4.9014561219921315E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>300.13333333333333</v>
+        <v>300.53333333333342</v>
       </c>
       <c r="B8">
-        <v>42.104056141198242</v>
+        <v>42.041230831647077</v>
       </c>
       <c r="C8">
-        <v>1.2982618228125291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.293755720586713</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>42.426853333333341</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>1.2452786666666666</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>-0.38562250168626377</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>4.8477053920046309E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>347.63333333333333</v>
+        <v>301.46666666666658</v>
       </c>
       <c r="B9">
-        <v>44.300537894416031</v>
+        <v>41.838250477431117</v>
       </c>
       <c r="C9">
-        <v>1.2960247635988149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2935947148544431</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>42.442346666666666</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1.2452413333333334</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>-0.60409618923554831</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>4.8353381521109684E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>300.13333333333333</v>
+        <v>348.41666666666669</v>
       </c>
       <c r="B10">
-        <v>42.005785003147942</v>
+        <v>44.081563162867951</v>
       </c>
       <c r="C10">
-        <v>1.294309227886588</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.290976438597053</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>43.221716666666666</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>1.2433633333333334</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0.8598464962012855</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>4.7613105263719646E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>300.53333333333342</v>
+        <v>304.60000000000002</v>
       </c>
       <c r="B11">
-        <v>42.041230831647077</v>
+        <v>42.050955384922567</v>
       </c>
       <c r="C11">
-        <v>1.293755720586713</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.291587824606294</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>42.49436</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1.2451160000000001</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>-0.44340461507743356</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>4.6471824606293843E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>301.46666666666658</v>
+        <v>299.53333333333342</v>
       </c>
       <c r="B12">
-        <v>41.838250477431117</v>
+        <v>42.015873455441408</v>
       </c>
       <c r="C12">
-        <v>1.2935947148544431</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.29178309656596</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>42.410253333333337</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>1.2453186666666667</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>-0.39437987789192874</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>4.6464429899293336E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>299.53333333333342</v>
+        <v>300.98333333333329</v>
       </c>
       <c r="B13">
-        <v>42.015873455441408</v>
+        <v>41.885468186972567</v>
       </c>
       <c r="C13">
-        <v>1.29178309656596</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2908031305024299</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>42.434323333333339</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1.2452606666666668</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>-0.54885514636077204</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>4.5542463835763103E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>304.60000000000002</v>
+        <v>348.71666666666658</v>
       </c>
       <c r="B14">
-        <v>42.050955384922567</v>
+        <v>43.927136341384617</v>
       </c>
       <c r="C14">
-        <v>1.291587824606294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2843655352619761</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>43.226696666666669</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>1.2433513333333335</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0.70043967471794844</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>4.101420192864258E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>348.41666666666669</v>
+        <v>301.3</v>
       </c>
       <c r="B15">
-        <v>44.081563162867951</v>
+        <v>42.001114706225351</v>
       </c>
       <c r="C15">
-        <v>1.290976438597053</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.285360621046707</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>42.439580000000007</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1.2452480000000001</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>-0.43846529377465515</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>4.0112621046706876E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>300.98333333333329</v>
+        <v>303.28333333333342</v>
       </c>
       <c r="B16">
-        <v>41.885468186972567</v>
+        <v>41.747647155681612</v>
       </c>
       <c r="C16">
-        <v>1.2908031305024299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.284555368086044</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>42.472503333333336</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1.2451686666666668</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>-0.7248561776517235</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>3.9386701419377168E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>301.3</v>
+        <v>350.18333333333328</v>
       </c>
       <c r="B17">
-        <v>42.001114706225351</v>
+        <v>43.739007650127832</v>
       </c>
       <c r="C17">
-        <v>1.285360621046707</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.280724842358131</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>43.251043333333335</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1.2432926666666668</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0.48796431679449626</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>3.7432175691464176E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>303.28333333333342</v>
+        <v>346.68333333333328</v>
       </c>
       <c r="B18">
-        <v>41.747647155681612</v>
+        <v>43.541526515917312</v>
       </c>
       <c r="C18">
-        <v>1.284555368086044</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2803624960428019</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>43.192943333333332</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1.2434326666666669</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>0.34858318258397958</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>3.6929829376135093E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>348.71666666666658</v>
+        <v>303.73333333333329</v>
       </c>
       <c r="B19">
-        <v>43.927136341384617</v>
+        <v>41.690360324647848</v>
       </c>
       <c r="C19">
-        <v>1.2843655352619761</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.280180731063143</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>42.479973333333334</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1.2451506666666667</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>-0.78961300868548534</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>3.5030064396476268E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>350.18333333333328</v>
+        <v>300.14999999999998</v>
       </c>
       <c r="B20">
-        <v>43.739007650127832</v>
+        <v>41.50806311682615</v>
       </c>
       <c r="C20">
-        <v>1.280724842358131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2796995589800439</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>42.420490000000001</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1.2452940000000001</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>-0.91242688317385046</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>3.4405558980043827E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>346.68333333333328</v>
+        <v>302.95</v>
       </c>
       <c r="B21">
-        <v>43.541526515917312</v>
+        <v>41.300267429823833</v>
       </c>
       <c r="C21">
-        <v>1.2803624960428019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2779472685510509</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>42.466970000000003</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1.245182</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>-1.1667025701761702</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>3.2765268551050886E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>303.73333333333329</v>
+        <v>351.78333333333342</v>
       </c>
       <c r="B22">
-        <v>41.690360324647848</v>
+        <v>43.34519637918978</v>
       </c>
       <c r="C22">
-        <v>1.280180731063143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2753060902371081</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>43.277603333333339</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1.2432286666666668</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>6.7593045856440881E-2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>3.2077423570441299E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>300.14999999999998</v>
+        <v>347.85</v>
       </c>
       <c r="B23">
-        <v>41.50806311682615</v>
+        <v>43.244964628735907</v>
       </c>
       <c r="C23">
-        <v>1.2796995589800439</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2738444669383819</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>43.212310000000002</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>1.2433860000000001</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>3.2654628735905078E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>3.0458466938381834E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>302.95</v>
+        <v>352.93333333333328</v>
       </c>
       <c r="B24">
-        <v>41.300267429823833</v>
+        <v>43.252449130481899</v>
       </c>
       <c r="C24">
-        <v>1.2779472685510509</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.272880436604475</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>43.296693333333337</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1.2431826666666668</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>-4.4244202851437819E-2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>2.969776993780826E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>351.78333333333342</v>
+        <v>346.53333333333342</v>
       </c>
       <c r="B25">
-        <v>43.34519637918978</v>
+        <v>42.987559676554078</v>
       </c>
       <c r="C25">
-        <v>1.2753060902371081</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2704436255890279</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>43.190453333333338</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>1.2434386666666668</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>-0.20289365677925986</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>2.70049589223611E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>347.85</v>
+        <v>349.81666666666672</v>
       </c>
       <c r="B26">
-        <v>43.244964628735907</v>
+        <v>42.958163890324663</v>
       </c>
       <c r="C26">
-        <v>1.2738444669383819</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2697805652654499</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>43.244956666666667</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>1.2433073333333333</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>-0.28679277634200417</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>2.6473231932116592E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>352.93333333333328</v>
+        <v>348.3</v>
       </c>
       <c r="B27">
-        <v>43.252449130481899</v>
+        <v>42.959465270667657</v>
       </c>
       <c r="C27">
-        <v>1.272880436604475</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.266725306003571</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>43.21978</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>1.243368</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>-0.26031472933234312</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>2.3357306003570999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>346.53333333333342</v>
+        <v>347.65</v>
       </c>
       <c r="B28">
-        <v>42.987559676554078</v>
+        <v>42.949819584910863</v>
       </c>
       <c r="C28">
-        <v>1.2704436255890279</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2655299419921291</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>43.20899</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>1.2433940000000001</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>-0.25917041508913741</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>2.2135941992128982E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>349.81666666666672</v>
+        <v>350.96666666666658</v>
       </c>
       <c r="B29">
-        <v>42.958163890324663</v>
+        <v>42.683996278351991</v>
       </c>
       <c r="C29">
-        <v>1.2697805652654499</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2626953882180649</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>43.264046666666665</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>1.2432613333333333</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>-0.58005038831467459</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>1.94340548847316E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>348.3</v>
+        <v>351.66666666666669</v>
       </c>
       <c r="B30">
-        <v>42.959465270667657</v>
+        <v>42.264667390160938</v>
       </c>
       <c r="C30">
-        <v>1.266725306003571</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2510085180052599</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>43.275666666666666</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>1.2432333333333334</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>-1.0109992765057285</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>7.775184671926505E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>347.65</v>
+        <v>282.06666666666672</v>
       </c>
       <c r="B31">
-        <v>42.949819584910863</v>
+        <v>41.968142879798457</v>
       </c>
       <c r="C31">
-        <v>1.2655299419921291</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2462519764161839</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>42.120306666666671</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>1.2460173333333333</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>-0.15216378686821486</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>2.346430828505941E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>350.96666666666658</v>
+        <v>284.03333333333342</v>
       </c>
       <c r="B32">
-        <v>42.683996278351991</v>
+        <v>42.598438929884701</v>
       </c>
       <c r="C32">
-        <v>1.2626953882180649</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2437457250030961</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>42.152953333333336</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>1.2459386666666667</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>0.44548559655136444</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>-2.1929416635706467E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>351.66666666666669</v>
+        <v>281.86666666666667</v>
       </c>
       <c r="B33">
-        <v>42.264667390160938</v>
+        <v>42.288792230588463</v>
       </c>
       <c r="C33">
-        <v>1.2510085180052599</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.240482404454976</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>42.116986666666669</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>1.2460253333333333</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>0.17180556392179369</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>-5.5429288783572783E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>282.06666666666672</v>
+        <v>279.2</v>
       </c>
       <c r="B34">
-        <v>41.968142879798457</v>
+        <v>41.911568608344297</v>
       </c>
       <c r="C34">
-        <v>1.2462519764161839</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.238538956704335</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:D66" si="4">(0.0166*A34) + 37.438</f>
+        <v>42.072720000000004</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:E66" si="5">((-0.00004)*A34) + 1.2573</f>
+        <v>1.246132</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34:F66" si="6">B34-D34</f>
+        <v>-0.16115139165570724</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34:G66" si="7">C34-E34</f>
+        <v>-7.593043295665014E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>284.03333333333342</v>
+        <v>327.3</v>
       </c>
       <c r="B35">
-        <v>42.598438929884701</v>
+        <v>44.007449351509258</v>
       </c>
       <c r="C35">
-        <v>1.2437457250030961</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.235197580972988</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="4"/>
+        <v>42.871180000000003</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="5"/>
+        <v>1.244208</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="6"/>
+        <v>1.1362693515092559</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="7"/>
+        <v>-9.01041902701194E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>281.86666666666667</v>
+        <v>328.45</v>
       </c>
       <c r="B36">
-        <v>42.288792230588463</v>
+        <v>43.970276242723351</v>
       </c>
       <c r="C36">
-        <v>1.240482404454976</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.226611474708371</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="4"/>
+        <v>42.890270000000001</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="5"/>
+        <v>1.244162</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="6"/>
+        <v>1.0800062427233499</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="7"/>
+        <v>-1.7550525291629038E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>279.2</v>
+        <v>309.34175499999998</v>
       </c>
       <c r="B37">
-        <v>41.911568608344297</v>
+        <v>43.218905450725387</v>
       </c>
       <c r="C37">
-        <v>1.238538956704335</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.226311432043929</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="4"/>
+        <v>42.573073133000001</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="5"/>
+        <v>1.2449263298000002</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="6"/>
+        <v>0.64583231772538596</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="7"/>
+        <v>-1.8614897756071169E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>327.3</v>
+        <v>281.8</v>
       </c>
       <c r="B38">
-        <v>44.007449351509258</v>
+        <v>41.232787606844091</v>
       </c>
       <c r="C38">
-        <v>1.235197580972988</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.22403464708542</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="4"/>
+        <v>42.115880000000004</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="5"/>
+        <v>1.2460280000000001</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="6"/>
+        <v>-0.8830923931559127</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="7"/>
+        <v>-2.1993352914580155E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>328.45</v>
+        <v>308.70008816666672</v>
       </c>
       <c r="B39">
-        <v>43.970276242723351</v>
+        <v>42.87061139674082</v>
       </c>
       <c r="C39">
-        <v>1.226611474708371</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2226536582804759</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="4"/>
+        <v>42.562421463566672</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="5"/>
+        <v>1.2449519964733333</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="6"/>
+        <v>0.30818993317414822</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="7"/>
+        <v>-2.2298338192857425E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>309.34175499999998</v>
+        <v>280.18333333333328</v>
       </c>
       <c r="B40">
-        <v>43.218905450725387</v>
+        <v>41.322806835534728</v>
       </c>
       <c r="C40">
-        <v>1.226311432043929</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2236471449455879</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="4"/>
+        <v>42.089043333333336</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="5"/>
+        <v>1.2460926666666667</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="6"/>
+        <v>-0.7662364977986087</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="7"/>
+        <v>-2.2445521721078832E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>281.8</v>
+        <v>309.24453283333332</v>
       </c>
       <c r="B41">
-        <v>41.232787606844091</v>
+        <v>42.887334581399841</v>
       </c>
       <c r="C41">
-        <v>1.22403464708542</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.222217639856771</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="4"/>
+        <v>42.571459245033338</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="5"/>
+        <v>1.2449302186866666</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="6"/>
+        <v>0.31587533636650278</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="7"/>
+        <v>-2.2712578829895635E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>280.18333333333328</v>
+        <v>323.83333333333331</v>
       </c>
       <c r="B42">
-        <v>41.322806835534728</v>
+        <v>43.348016890392152</v>
       </c>
       <c r="C42">
-        <v>1.2236471449455879</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2204352720636891</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="4"/>
+        <v>42.813633333333335</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="5"/>
+        <v>1.2443466666666667</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="6"/>
+        <v>0.5343835570588169</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="7"/>
+        <v>-2.3911394602977643E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
+        <v>327.35000000000002</v>
+      </c>
+      <c r="B43">
+        <v>43.432236692267047</v>
+      </c>
+      <c r="C43">
+        <v>1.2185860690534029</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="4"/>
+        <v>42.872010000000003</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="5"/>
+        <v>1.2442060000000001</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="6"/>
+        <v>0.5602266922670438</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="7"/>
+        <v>-2.5619930946597202E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>308.70008816666672</v>
       </c>
-      <c r="B43">
-        <v>42.87061139674082</v>
-      </c>
-      <c r="C43">
-        <v>1.2226536582804759</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>309.24453283333332</v>
-      </c>
       <c r="B44">
-        <v>42.887334581399841</v>
+        <v>42.944617759027743</v>
       </c>
       <c r="C44">
-        <v>1.222217639856771</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2185723901087311</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="4"/>
+        <v>42.562421463566672</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="5"/>
+        <v>1.2449519964733333</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="6"/>
+        <v>0.38219629546107114</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="7"/>
+        <v>-2.6379606364602237E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>323.83333333333331</v>
+        <v>326.8</v>
       </c>
       <c r="B45">
-        <v>43.348016890392152</v>
+        <v>43.174110975632459</v>
       </c>
       <c r="C45">
-        <v>1.2204352720636891</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2160638613411241</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="4"/>
+        <v>42.862880000000004</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="5"/>
+        <v>1.2442280000000001</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="6"/>
+        <v>0.31123097563245494</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="7"/>
+        <v>-2.8164138658876015E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>327.35000000000002</v>
+        <v>310.87786666666659</v>
       </c>
       <c r="B46">
-        <v>43.432236692267047</v>
+        <v>42.796331125439771</v>
       </c>
       <c r="C46">
-        <v>1.2185860690534029</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.216096416197574</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="4"/>
+        <v>42.59857258666667</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="5"/>
+        <v>1.2448648853333335</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="6"/>
+        <v>0.19775853877310112</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="7"/>
+        <v>-2.8768469135759478E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>308.70008816666672</v>
+        <v>312.99722116666658</v>
       </c>
       <c r="B47">
-        <v>42.944617759027743</v>
+        <v>42.801609819521239</v>
       </c>
       <c r="C47">
-        <v>1.2185723901087311</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2139367226825239</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="4"/>
+        <v>42.633753871366665</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="5"/>
+        <v>1.2447801111533334</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="6"/>
+        <v>0.16785594815457472</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="7"/>
+        <v>-3.0843388470809474E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>310.87786666666659</v>
+        <v>325.23333333333329</v>
       </c>
       <c r="B48">
-        <v>42.796331125439771</v>
+        <v>42.58959362725286</v>
       </c>
       <c r="C48">
-        <v>1.216096416197574</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.213235999294507</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="4"/>
+        <v>42.836873333333337</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="5"/>
+        <v>1.2442906666666667</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="6"/>
+        <v>-0.24727970608047656</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="7"/>
+        <v>-3.1054667372159672E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>326.8</v>
+        <v>311.28620000000001</v>
       </c>
       <c r="B49">
-        <v>43.174110975632459</v>
+        <v>42.791044142553467</v>
       </c>
       <c r="C49">
-        <v>1.2160638613411241</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2133464794481561</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="4"/>
+        <v>42.605350920000006</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="5"/>
+        <v>1.2448485520000001</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="6"/>
+        <v>0.18569322255346066</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="7"/>
+        <v>-3.1502072551844007E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>312.99722116666658</v>
+        <v>312.51120033333342</v>
       </c>
       <c r="B50">
-        <v>42.801609819521239</v>
+        <v>42.723802494831027</v>
       </c>
       <c r="C50">
-        <v>1.2139367226825239</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.212736252296408</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="4"/>
+        <v>42.62568592553334</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="5"/>
+        <v>1.2447995519866668</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="6"/>
+        <v>9.8116569297687306E-2</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="7"/>
+        <v>-3.2063299690258784E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>311.28620000000001</v>
+        <v>310.3528665</v>
       </c>
       <c r="B51">
-        <v>42.791044142553467</v>
+        <v>42.585938999908358</v>
       </c>
       <c r="C51">
-        <v>1.2133464794481561</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.210518446246529</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="4"/>
+        <v>42.589857583899999</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="5"/>
+        <v>1.24488588534</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="6"/>
+        <v>-3.9185839916413556E-3</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="7"/>
+        <v>-3.4367439093470953E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>325.23333333333329</v>
+        <v>314.53333233333342</v>
       </c>
       <c r="B52">
-        <v>42.58959362725286</v>
+        <v>42.808714790597271</v>
       </c>
       <c r="C52">
-        <v>1.213235999294507</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2083463798179099</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="4"/>
+        <v>42.659253316733334</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="5"/>
+        <v>1.2447186667066668</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="6"/>
+        <v>0.14946147386393704</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="7"/>
+        <v>-3.6372286888756822E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>312.51120033333342</v>
+        <v>310.99444333333332</v>
       </c>
       <c r="B53">
-        <v>42.723802494831027</v>
+        <v>42.111734737249968</v>
       </c>
       <c r="C53">
-        <v>1.212736252296408</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.203154077820864</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="4"/>
+        <v>42.600507759333333</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="5"/>
+        <v>1.2448602222666667</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="6"/>
+        <v>-0.48877302208336459</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="7"/>
+        <v>-4.1706144445802673E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>310.3528665</v>
+        <v>308.97231049999999</v>
       </c>
       <c r="B54">
-        <v>42.585938999908358</v>
+        <v>42.382029230247149</v>
       </c>
       <c r="C54">
-        <v>1.210518446246529</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2020791255829939</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="4"/>
+        <v>42.566940354300002</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="5"/>
+        <v>1.2449411075800001</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="6"/>
+        <v>-0.18491112405285293</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="7"/>
+        <v>-4.2861981997006193E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>314.53333233333342</v>
+        <v>308.23342133333341</v>
       </c>
       <c r="B55">
-        <v>42.808714790597271</v>
+        <v>42.373910675589222</v>
       </c>
       <c r="C55">
-        <v>1.2083463798179099</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.198555850110584</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="4"/>
+        <v>42.554674794133334</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="5"/>
+        <v>1.2449706631466668</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="6"/>
+        <v>-0.18076411854411134</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="7"/>
+        <v>-4.6414813036082858E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>310.99444333333332</v>
+        <v>312.80277666666672</v>
       </c>
       <c r="B56">
-        <v>42.111734737249968</v>
+        <v>41.788186750902398</v>
       </c>
       <c r="C56">
-        <v>1.203154077820864</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.194420894795641</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="4"/>
+        <v>42.63052609266667</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="5"/>
+        <v>1.2447878889333335</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="6"/>
+        <v>-0.84233934176427283</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="7"/>
+        <v>-5.0366994137692522E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>308.97231049999999</v>
+        <v>262.25</v>
       </c>
       <c r="B57">
-        <v>42.382029230247149</v>
+        <v>42.059780930345433</v>
       </c>
       <c r="C57">
-        <v>1.2020791255829939</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.192468836520328</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="4"/>
+        <v>41.791350000000001</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="5"/>
+        <v>1.24681</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="6"/>
+        <v>0.26843093034543131</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="7"/>
+        <v>-5.4341163479671994E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>308.23342133333341</v>
+        <v>312.35555449999998</v>
       </c>
       <c r="B58">
-        <v>42.373910675589222</v>
+        <v>41.724101711235242</v>
       </c>
       <c r="C58">
-        <v>1.198555850110584</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.1903542135373151</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="4"/>
+        <v>42.623102204700004</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="5"/>
+        <v>1.2448057778200001</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="6"/>
+        <v>-0.89900049346476152</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="7"/>
+        <v>-5.445156428268505E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>312.80277666666672</v>
+        <v>262.16666666666669</v>
       </c>
       <c r="B59">
-        <v>41.788186750902398</v>
+        <v>41.799210004494867</v>
       </c>
       <c r="C59">
-        <v>1.194420894795641</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.1889257716041639</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="4"/>
+        <v>41.789966666666672</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="5"/>
+        <v>1.2468133333333333</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="6"/>
+        <v>9.2433378281953082E-3</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="7"/>
+        <v>-5.7887561729169423E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>262.25</v>
+        <v>262.35000000000002</v>
       </c>
       <c r="B60">
-        <v>42.059780930345433</v>
+        <v>41.436574089836263</v>
       </c>
       <c r="C60">
-        <v>1.192468836520328</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.176749363782142</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="4"/>
+        <v>41.793010000000002</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="5"/>
+        <v>1.2468060000000001</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="6"/>
+        <v>-0.35643591016373932</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="7"/>
+        <v>-7.005663621785807E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>312.35555449999998</v>
+        <v>290.69452749999999</v>
       </c>
       <c r="B61">
-        <v>41.724101711235242</v>
+        <v>43.021156691264608</v>
       </c>
       <c r="C61">
-        <v>1.1903542135373151</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.1469152308325889</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="4"/>
+        <v>42.263529156499999</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="5"/>
+        <v>1.2456722189</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="6"/>
+        <v>0.75762753476460887</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="7"/>
+        <v>-9.8756988067411067E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>262.16666666666669</v>
+        <v>293.53333233333342</v>
       </c>
       <c r="B62">
-        <v>41.799210004494867</v>
+        <v>42.888860655920858</v>
       </c>
       <c r="C62">
-        <v>1.1889257716041639</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.144713673593817</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="4"/>
+        <v>42.310653316733337</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="5"/>
+        <v>1.2455586667066667</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="6"/>
+        <v>0.57820733918752154</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="7"/>
+        <v>-0.10084499311284967</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>262.35000000000002</v>
+        <v>287.73897116666672</v>
       </c>
       <c r="B63">
-        <v>41.436574089836263</v>
+        <v>42.3525220862293</v>
       </c>
       <c r="C63">
-        <v>1.176749363782142</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.135981469025984</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="4"/>
+        <v>42.214466921366672</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="5"/>
+        <v>1.2457904411533334</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="6"/>
+        <v>0.13805516486262803</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="7"/>
+        <v>-0.10980897212734941</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>290.69452749999999</v>
+        <v>292.77508366666672</v>
       </c>
       <c r="B64">
-        <v>43.021156691264608</v>
+        <v>42.213264158780113</v>
       </c>
       <c r="C64">
-        <v>1.1469152308325889</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.133592602274522</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="4"/>
+        <v>42.298066388866673</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="5"/>
+        <v>1.2455889966533333</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="6"/>
+        <v>-8.4802230086559405E-2</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="7"/>
+        <v>-0.11199639437881137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>293.53333233333342</v>
+        <v>289.33333233333337</v>
       </c>
       <c r="B65">
-        <v>42.888860655920858</v>
+        <v>41.746195671116823</v>
       </c>
       <c r="C65">
-        <v>1.144713673593817</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.133011873883303</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="4"/>
+        <v>42.240933316733333</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="5"/>
+        <v>1.2457266667066667</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="6"/>
+        <v>-0.49473764561651024</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="7"/>
+        <v>-0.11271479282336361</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>287.73897116666672</v>
+        <v>287.23341533333331</v>
       </c>
       <c r="B66">
-        <v>42.3525220862293</v>
+        <v>41.941951585787912</v>
       </c>
       <c r="C66">
-        <v>1.135981469025984</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>292.77508366666672</v>
-      </c>
-      <c r="B67">
-        <v>42.213264158780113</v>
-      </c>
-      <c r="C67">
-        <v>1.133592602274522</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>289.33333233333337</v>
-      </c>
-      <c r="B68">
-        <v>41.746195671116823</v>
-      </c>
-      <c r="C68">
-        <v>1.133011873883303</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>287.23341533333331</v>
-      </c>
-      <c r="B69">
-        <v>41.941951585787912</v>
-      </c>
-      <c r="C69">
         <v>1.1278913560827499</v>
       </c>
+      <c r="D66">
+        <f t="shared" si="4"/>
+        <v>42.206074694533335</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="5"/>
+        <v>1.2458106633866668</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="6"/>
+        <v>-0.264123108745423</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="7"/>
+        <v>-0.11791930730391686</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C70">
-    <sortState ref="A2:C85">
-      <sortCondition descending="1" ref="C1:C85"/>
+  <autoFilter ref="A1:G66">
+    <sortState ref="A2:G69">
+      <sortCondition descending="1" ref="G1:G69"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13101,15 +14036,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13119,162 +14054,398 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>216.8833333333333</v>
+        <v>293.38333333333333</v>
       </c>
       <c r="B2">
-        <v>58.726097345951729</v>
+        <v>58.111780235892439</v>
       </c>
       <c r="C2">
-        <v>2.0047804822928028</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.7496611926672161</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D33" si="0">0.0076*A2 + 55.381</f>
+        <v>57.610713333333337</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E33" si="1">-0.0016*A2 + 2.1568</f>
+        <v>1.6873866666666668</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F33" si="2">B2-D2</f>
+        <v>0.5010669025591028</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G33" si="3">C2-E2</f>
+        <v>6.227452600054928E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>211.95</v>
+        <v>292.25</v>
       </c>
       <c r="B3">
-        <v>58.47110820159606</v>
+        <v>58.378363101640993</v>
       </c>
       <c r="C3">
-        <v>2.0031265088767798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.744089779076968</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>57.6021</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>1.6892</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="2"/>
+        <v>0.77626310164099266</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="3"/>
+        <v>5.4889779076968015E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>292.25</v>
+        <v>288.08333333333331</v>
       </c>
       <c r="B4">
-        <v>58.378363101640993</v>
+        <v>58.094829225649278</v>
       </c>
       <c r="C4">
-        <v>1.744089779076968</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.7502591778076591</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>57.570433333333334</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1.6958666666666669</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>0.52439589231594397</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>5.4392511140992195E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>278.48333333333329</v>
+        <v>292.36666666666667</v>
       </c>
       <c r="B5">
-        <v>58.285769849220493</v>
+        <v>58.113328235493427</v>
       </c>
       <c r="C5">
-        <v>1.6256567470284371</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.7404129364327141</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>57.602986666666666</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>1.6890133333333335</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>0.51034156882676029</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>5.1399603099380631E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>212.85</v>
+        <v>290.11666666666667</v>
       </c>
       <c r="B6">
-        <v>58.205883421902257</v>
+        <v>57.776830587910858</v>
       </c>
       <c r="C6">
-        <v>1.8140078974850919</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.743390204989375</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>57.585886666666667</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1.6926133333333333</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>0.19094392124419102</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>5.0776871656041722E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>244.45</v>
+        <v>291.05</v>
       </c>
       <c r="B7">
-        <v>58.169696479887079</v>
+        <v>58.031507074295327</v>
       </c>
       <c r="C7">
-        <v>1.795115504529242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.741467277820818</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>57.592979999999997</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1.69112</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0.43852707429532956</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>5.0347277820818048E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>292.36666666666667</v>
+        <v>229.23333333333329</v>
       </c>
       <c r="B8">
-        <v>58.113328235493427</v>
+        <v>56.96394466790953</v>
       </c>
       <c r="C8">
-        <v>1.7404129364327141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.8402416929943199</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>57.123173333333334</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>1.7900266666666669</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>-0.15922866542380376</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>5.0215026327653067E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>293.38333333333333</v>
+        <v>291.31666666666672</v>
       </c>
       <c r="B9">
-        <v>58.111780235892439</v>
+        <v>57.879505627993403</v>
       </c>
       <c r="C9">
-        <v>1.7496611926672161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.738890565026521</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>57.59500666666667</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1.6906933333333334</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0.28449896132673302</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>4.819723169318757E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>288.08333333333331</v>
+        <v>296.11666666666667</v>
       </c>
       <c r="B10">
-        <v>58.094829225649278</v>
+        <v>57.787089873653848</v>
       </c>
       <c r="C10">
-        <v>1.7502591778076591</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.730944159971453</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>57.631486666666667</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>1.6830133333333333</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0.15560320698718044</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>4.7930826638119761E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>209.5</v>
+        <v>291.63333333333333</v>
       </c>
       <c r="B11">
-        <v>58.05345539225101</v>
+        <v>57.306092175293252</v>
       </c>
       <c r="C11">
-        <v>1.9836081761022619</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.735474552213581</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>57.597413333333336</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1.6901866666666667</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>-0.29132115804008407</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>4.5287885546914319E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>291.05</v>
+        <v>290.81666666666672</v>
       </c>
       <c r="B12">
-        <v>58.031507074295327</v>
+        <v>57.575105583364788</v>
       </c>
       <c r="C12">
-        <v>1.741467277820818</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.735966736379899</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>57.591206666666665</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>1.6914933333333333</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>-1.6101083301876429E-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>4.4473403046565663E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>245.06666666666669</v>
+        <v>238.0333333333333</v>
       </c>
       <c r="B13">
-        <v>58.01184445050081</v>
+        <v>56.637708062099406</v>
       </c>
       <c r="C13">
-        <v>1.798138394921641</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.818738325693726</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>57.190053333333331</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1.7759466666666668</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>-0.55234527123392496</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>4.279165902705917E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>207.1166666666667</v>
+        <v>289.45</v>
       </c>
       <c r="B14">
-        <v>57.997285199822748</v>
+        <v>57.590288071152223</v>
       </c>
       <c r="C14">
-        <v>1.9872238256148249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.73596570682235</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>57.580820000000003</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>1.6936800000000001</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>9.4680711522201477E-3</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>4.2285706822349889E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>291.31666666666672</v>
+        <v>290.3</v>
       </c>
       <c r="B15">
-        <v>57.879505627993403</v>
+        <v>57.642159575491903</v>
       </c>
       <c r="C15">
-        <v>1.738890565026521</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.7345029169072519</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>57.58728</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1.69232</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>5.4879575491902699E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>4.2182916907251844E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>294.71666666666658</v>
       </c>
@@ -13284,440 +14455,945 @@
       <c r="C16">
         <v>1.7265234318006391</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>57.620846666666665</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1.6852533333333335</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0.18827714697676612</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>4.127009846730556E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>296.11666666666667</v>
+        <v>245.06666666666669</v>
       </c>
       <c r="B17">
-        <v>57.787089873653848</v>
+        <v>58.01184445050081</v>
       </c>
       <c r="C17">
-        <v>1.730944159971453</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.798138394921641</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>57.243506666666669</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1.7646933333333332</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0.76833778383414142</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>3.3445061588307734E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>290.11666666666667</v>
+        <v>232.98333333333329</v>
       </c>
       <c r="B18">
-        <v>57.776830587910858</v>
+        <v>56.350188304539778</v>
       </c>
       <c r="C18">
-        <v>1.743390204989375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.8151443796517379</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>57.151673333333335</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1.7840266666666666</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>-0.80148502879355732</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>3.1117712985071266E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
+        <v>244.45</v>
+      </c>
+      <c r="B19">
+        <v>58.169696479887079</v>
+      </c>
+      <c r="C19">
+        <v>1.795115504529242</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>57.238819999999997</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1.7656800000000001</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>0.93087647988708255</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>2.9435504529241818E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>235.5</v>
+      </c>
+      <c r="B20">
+        <v>55.814323386739048</v>
+      </c>
+      <c r="C20">
+        <v>1.8043656572353639</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>57.1708</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1.78</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>-1.356476613260952</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>2.436565723536388E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>241.9</v>
+      </c>
+      <c r="B21">
+        <v>57.593649873307911</v>
+      </c>
+      <c r="C21">
+        <v>1.792249418672184</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>57.219439999999999</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1.76976</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>0.37420987330791178</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>2.2489418672184014E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>246.58333333333329</v>
+      </c>
+      <c r="B22">
+        <v>57.495384939504682</v>
+      </c>
+      <c r="C22">
+        <v>1.782019598529444</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>57.25503333333333</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1.7622666666666666</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>0.24035160617135176</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>1.9752931862777379E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>293.83333333333331</v>
+      </c>
+      <c r="B23">
+        <v>56.688235534452382</v>
+      </c>
+      <c r="C23">
+        <v>1.700065327603191</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>57.614133333333335</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>1.6866666666666668</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>-0.92589779888095336</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>1.3398660936524198E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>242.91666666666671</v>
+      </c>
+      <c r="B24">
+        <v>56.68266672297198</v>
+      </c>
+      <c r="C24">
+        <v>1.77757047522399</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>57.227166666666669</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1.7681333333333333</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>-0.54449994369468868</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>9.4371418906566973E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>244.55</v>
+      </c>
+      <c r="B25">
+        <v>57.150590852672217</v>
+      </c>
+      <c r="C25">
+        <v>1.773165938907854</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>57.239580000000004</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>1.76552</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>-8.8989147327787066E-2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>7.645938907854033E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>243.8833333333333</v>
+      </c>
+      <c r="B26">
+        <v>57.205032006605833</v>
+      </c>
+      <c r="C26">
+        <v>1.770289127187491</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>57.234513333333332</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>1.7665866666666667</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>-2.9481326727498924E-2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>3.7024605208242356E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>244.56666666666669</v>
+      </c>
+      <c r="B27">
+        <v>56.939738630539068</v>
+      </c>
+      <c r="C27">
+        <v>1.767663429597252</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>57.23970666666667</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>1.7654933333333334</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>-0.29996803612760203</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>2.1700962639186194E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>232.5333333333333</v>
+      </c>
+      <c r="B28">
+        <v>55.309901016113884</v>
+      </c>
+      <c r="C28">
+        <v>1.7853126773701979</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>57.148253333333336</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>1.7847466666666667</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>-1.8383523172194529</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>5.6601070353123895E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>242.2833333333333</v>
+      </c>
+      <c r="B29">
+        <v>56.865784361467249</v>
+      </c>
+      <c r="C29">
+        <v>1.767900856874169</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>57.222353333333331</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>1.7691466666666669</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>-0.35656897186608205</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>-1.2458097924978873E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>212.85</v>
+      </c>
+      <c r="B30">
+        <v>58.205883421902257</v>
+      </c>
+      <c r="C30">
+        <v>1.8140078974850919</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>56.998660000000001</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>1.8162400000000001</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>1.2072234219022562</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>-2.2321025149081297E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>244.01666666666671</v>
+      </c>
+      <c r="B31">
+        <v>56.693820828535088</v>
+      </c>
+      <c r="C31">
+        <v>1.7611267619165261</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>57.235526666666665</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>1.7663733333333334</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>-0.54170583813157691</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>-5.2465714168072886E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>243.7166666666667</v>
+      </c>
+      <c r="B32">
+        <v>56.645429047830923</v>
+      </c>
+      <c r="C32">
+        <v>1.761371039941749</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>57.233246666666666</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>1.7668533333333334</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>-0.58781761883574291</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>-5.4822933915843475E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>244.4</v>
+      </c>
+      <c r="B33">
+        <v>56.332268643104719</v>
+      </c>
+      <c r="C33">
+        <v>1.7543118466638761</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>57.238439999999997</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>1.76576</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>-0.90617135689527828</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>-1.1448153336123923E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>243.33333333333329</v>
+      </c>
+      <c r="B34">
+        <v>55.867080260854031</v>
+      </c>
+      <c r="C34">
+        <v>1.7462241178355651</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:D50" si="4">0.0076*A34 + 55.381</f>
+        <v>57.230333333333334</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:E50" si="5">-0.0016*A34 + 2.1568</f>
+        <v>1.7674666666666667</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34:F50" si="6">B34-D34</f>
+        <v>-1.3632530724793028</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34:G50" si="7">C34-E34</f>
+        <v>-2.124254883110166E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>246.4</v>
+      </c>
+      <c r="B35">
+        <v>56.166421519919908</v>
+      </c>
+      <c r="C35">
+        <v>1.7407007415034019</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="4"/>
+        <v>57.253639999999997</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="5"/>
+        <v>1.7625600000000001</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="6"/>
+        <v>-1.0872184800800895</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="7"/>
+        <v>-2.18592584965982E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>194.16666666666671</v>
+      </c>
+      <c r="B36">
+        <v>56.023749862420253</v>
+      </c>
+      <c r="C36">
+        <v>1.798548797017969</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="4"/>
+        <v>56.856666666666669</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="5"/>
+        <v>1.8461333333333334</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="6"/>
+        <v>-0.83291680424641612</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="7"/>
+        <v>-4.7584536315364412E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>278.48333333333329</v>
+      </c>
+      <c r="B37">
+        <v>58.285769849220493</v>
+      </c>
+      <c r="C37">
+        <v>1.6256567470284371</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="4"/>
+        <v>57.497473333333332</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="5"/>
+        <v>1.7112266666666667</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="6"/>
+        <v>0.78829651588716132</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="7"/>
+        <v>-8.5569919638229575E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>269.08333333333331</v>
+      </c>
+      <c r="B38">
+        <v>57.693468844449463</v>
+      </c>
+      <c r="C38">
+        <v>1.631108776949092</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="4"/>
+        <v>57.426033333333336</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="5"/>
+        <v>1.7262666666666666</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="6"/>
+        <v>0.26743551111612618</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="7"/>
+        <v>-9.5157889717574662E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>270.11666666666667</v>
+      </c>
+      <c r="B39">
+        <v>57.399202914475786</v>
+      </c>
+      <c r="C39">
+        <v>1.624818580664299</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="4"/>
+        <v>57.433886666666666</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="5"/>
+        <v>1.7246133333333333</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="6"/>
+        <v>-3.4683752190879602E-2</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="7"/>
+        <v>-9.979475266903437E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>275.91666666666669</v>
       </c>
-      <c r="B19">
+      <c r="B40">
         <v>57.752640799578067</v>
       </c>
-      <c r="C19">
+      <c r="C40">
         <v>1.615456621566298</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="D40">
+        <f t="shared" si="4"/>
+        <v>57.477966666666667</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="5"/>
+        <v>1.7153333333333334</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="6"/>
+        <v>0.27467413291140019</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="7"/>
+        <v>-9.9876711767035387E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>215.7166666666667</v>
+      </c>
+      <c r="B41">
+        <v>56.016696822557677</v>
+      </c>
+      <c r="C41">
+        <v>1.7025319338437801</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="4"/>
+        <v>57.020446666666665</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="5"/>
+        <v>1.8116533333333333</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="6"/>
+        <v>-1.003749844108988</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="7"/>
+        <v>-0.10912139948955324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>229.85</v>
+      </c>
+      <c r="B42">
+        <v>57.679028521582453</v>
+      </c>
+      <c r="C42">
+        <v>1.6761223716907281</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="4"/>
+        <v>57.127859999999998</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="5"/>
+        <v>1.78904</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="6"/>
+        <v>0.55116852158245422</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="7"/>
+        <v>-0.11291762830927188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>231.9</v>
       </c>
-      <c r="B20">
+      <c r="B43">
         <v>57.698583128241417</v>
       </c>
-      <c r="C20">
+      <c r="C43">
         <v>1.6727685697783701</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>269.08333333333331</v>
-      </c>
-      <c r="B21">
-        <v>57.693468844449463</v>
-      </c>
-      <c r="C21">
-        <v>1.631108776949092</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>229.85</v>
-      </c>
-      <c r="B22">
-        <v>57.679028521582453</v>
-      </c>
-      <c r="C22">
-        <v>1.6761223716907281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>290.3</v>
-      </c>
-      <c r="B23">
-        <v>57.642159575491903</v>
-      </c>
-      <c r="C23">
-        <v>1.7345029169072519</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>241.9</v>
-      </c>
-      <c r="B24">
-        <v>57.593649873307911</v>
-      </c>
-      <c r="C24">
-        <v>1.792249418672184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>289.45</v>
-      </c>
-      <c r="B25">
-        <v>57.590288071152223</v>
-      </c>
-      <c r="C25">
-        <v>1.73596570682235</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>290.81666666666672</v>
-      </c>
-      <c r="B26">
-        <v>57.575105583364788</v>
-      </c>
-      <c r="C26">
-        <v>1.735966736379899</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>205.31666666666669</v>
-      </c>
-      <c r="B27">
-        <v>57.52344522215617</v>
-      </c>
-      <c r="C27">
-        <v>1.98479133941227</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>246.58333333333329</v>
-      </c>
-      <c r="B28">
-        <v>57.495384939504682</v>
-      </c>
-      <c r="C28">
-        <v>1.782019598529444</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="D43">
+        <f t="shared" si="4"/>
+        <v>57.143439999999998</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="5"/>
+        <v>1.78576</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="6"/>
+        <v>0.55514312824141854</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="7"/>
+        <v>-0.11299143022162994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>271.5</v>
+      </c>
+      <c r="B44">
+        <v>56.554842086362747</v>
+      </c>
+      <c r="C44">
+        <v>1.6078883057201789</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="4"/>
+        <v>57.444400000000002</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="5"/>
+        <v>1.7223999999999999</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="6"/>
+        <v>-0.88955791363725467</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="7"/>
+        <v>-0.114511694279821</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>277.46666666666658</v>
+      </c>
+      <c r="B45">
+        <v>57.369615689518177</v>
+      </c>
+      <c r="C45">
+        <v>1.595930694741859</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="4"/>
+        <v>57.489746666666669</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="5"/>
+        <v>1.7128533333333336</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="6"/>
+        <v>-0.12013097714849152</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="7"/>
+        <v>-0.11692263859147456</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>226.95</v>
       </c>
-      <c r="B29">
+      <c r="B46">
         <v>57.401032198873203</v>
       </c>
-      <c r="C29">
+      <c r="C46">
         <v>1.670688115329487</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>270.11666666666667</v>
-      </c>
-      <c r="B30">
-        <v>57.399202914475786</v>
-      </c>
-      <c r="C30">
-        <v>1.624818580664299</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="D46">
+        <f t="shared" si="4"/>
+        <v>57.105820000000001</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="5"/>
+        <v>1.7936800000000002</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="6"/>
+        <v>0.29521219887320171</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="7"/>
+        <v>-0.12299188467051314</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>225.7166666666667</v>
       </c>
-      <c r="B31">
+      <c r="B47">
         <v>57.396369046286587</v>
       </c>
-      <c r="C31">
+      <c r="C47">
         <v>1.6710674976818081</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>277.46666666666658</v>
-      </c>
-      <c r="B32">
-        <v>57.369615689518177</v>
-      </c>
-      <c r="C32">
-        <v>1.595930694741859</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>291.63333333333333</v>
-      </c>
-      <c r="B33">
-        <v>57.306092175293252</v>
-      </c>
-      <c r="C33">
-        <v>1.735474552213581</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>243.8833333333333</v>
-      </c>
-      <c r="B34">
-        <v>57.205032006605833</v>
-      </c>
-      <c r="C34">
-        <v>1.770289127187491</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="D47">
+        <f t="shared" si="4"/>
+        <v>57.096446666666665</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="5"/>
+        <v>1.7956533333333333</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="6"/>
+        <v>0.29992237961992174</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="7"/>
+        <v>-0.12458583565152526</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>229.95</v>
+      </c>
+      <c r="B48">
+        <v>56.543396668629171</v>
+      </c>
+      <c r="C48">
+        <v>1.6620107885614681</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="4"/>
+        <v>57.128619999999998</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="5"/>
+        <v>1.78888</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="6"/>
+        <v>-0.58522333137082683</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="7"/>
+        <v>-0.12686921143853191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>230.75</v>
       </c>
-      <c r="B35">
+      <c r="B49">
         <v>57.188746684754612</v>
       </c>
-      <c r="C35">
+      <c r="C49">
         <v>1.659314589308857</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>244.55</v>
-      </c>
-      <c r="B36">
-        <v>57.150590852672217</v>
-      </c>
-      <c r="C36">
-        <v>1.773165938907854</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>229.23333333333329</v>
-      </c>
-      <c r="B37">
-        <v>56.96394466790953</v>
-      </c>
-      <c r="C37">
-        <v>1.8402416929943199</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>244.56666666666669</v>
-      </c>
-      <c r="B38">
-        <v>56.939738630539068</v>
-      </c>
-      <c r="C38">
-        <v>1.767663429597252</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>242.2833333333333</v>
-      </c>
-      <c r="B39">
-        <v>56.865784361467249</v>
-      </c>
-      <c r="C39">
-        <v>1.767900856874169</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>244.01666666666671</v>
-      </c>
-      <c r="B40">
-        <v>56.693820828535088</v>
-      </c>
-      <c r="C40">
-        <v>1.7611267619165261</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>293.83333333333331</v>
-      </c>
-      <c r="B41">
-        <v>56.688235534452382</v>
-      </c>
-      <c r="C41">
-        <v>1.700065327603191</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>242.91666666666671</v>
-      </c>
-      <c r="B42">
-        <v>56.68266672297198</v>
-      </c>
-      <c r="C42">
-        <v>1.77757047522399</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>243.7166666666667</v>
-      </c>
-      <c r="B43">
-        <v>56.645429047830923</v>
-      </c>
-      <c r="C43">
-        <v>1.761371039941749</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>238.0333333333333</v>
-      </c>
-      <c r="B44">
-        <v>56.637708062099406</v>
-      </c>
-      <c r="C44">
-        <v>1.818738325693726</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="D49">
+        <f t="shared" si="4"/>
+        <v>57.134700000000002</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="5"/>
+        <v>1.7876000000000001</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="6"/>
+        <v>5.4046684754609942E-2</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="7"/>
+        <v>-0.12828541069114308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>226.33333333333329</v>
       </c>
-      <c r="B45">
+      <c r="B50">
         <v>56.622366060659878</v>
       </c>
-      <c r="C45">
+      <c r="C50">
         <v>1.6654085069502831</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>271.5</v>
-      </c>
-      <c r="B46">
-        <v>56.554842086362747</v>
-      </c>
-      <c r="C46">
-        <v>1.6078883057201789</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>229.95</v>
-      </c>
-      <c r="B47">
-        <v>56.543396668629171</v>
-      </c>
-      <c r="C47">
-        <v>1.6620107885614681</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>232.98333333333329</v>
-      </c>
-      <c r="B48">
-        <v>56.350188304539778</v>
-      </c>
-      <c r="C48">
-        <v>1.8151443796517379</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>244.4</v>
-      </c>
-      <c r="B49">
-        <v>56.332268643104719</v>
-      </c>
-      <c r="C49">
-        <v>1.7543118466638761</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>246.4</v>
-      </c>
-      <c r="B50">
-        <v>56.166421519919908</v>
-      </c>
-      <c r="C50">
-        <v>1.7407007415034019</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>194.16666666666671</v>
-      </c>
-      <c r="B51">
-        <v>56.023749862420253</v>
-      </c>
-      <c r="C51">
-        <v>1.798548797017969</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>215.7166666666667</v>
-      </c>
-      <c r="B52">
-        <v>56.016696822557677</v>
-      </c>
-      <c r="C52">
-        <v>1.7025319338437801</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>243.33333333333329</v>
-      </c>
-      <c r="B53">
-        <v>55.867080260854031</v>
-      </c>
-      <c r="C53">
-        <v>1.7462241178355651</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>235.5</v>
-      </c>
-      <c r="B54">
-        <v>55.814323386739048</v>
-      </c>
-      <c r="C54">
-        <v>1.8043656572353639</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>232.5333333333333</v>
-      </c>
-      <c r="B55">
-        <v>55.309901016113884</v>
-      </c>
-      <c r="C55">
-        <v>1.7853126773701979</v>
+      <c r="D50">
+        <f t="shared" si="4"/>
+        <v>57.101133333333337</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="5"/>
+        <v>1.7946666666666669</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="6"/>
+        <v>-0.47876727267345842</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="7"/>
+        <v>-0.12925815971638377</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C55">
-    <sortState ref="A2:C57">
-      <sortCondition descending="1" ref="B1:B57"/>
+  <autoFilter ref="A1:G50">
+    <sortState ref="A2:G55">
+      <sortCondition descending="1" ref="G1:G55"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
